--- a/lab/lab_3/xlsx3.xlsx
+++ b/lab/lab_3/xlsx3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06EDF05-CBE4-4621-89E8-8CD55407921E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368BE81E-0AB6-4857-BFA3-F6C6D085D611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -12176,8 +12176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12206,12 +12206,24 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="39">
+        <v>-7.2904600000000004</v>
+      </c>
+      <c r="B2" s="45">
+        <v>13.4003</v>
+      </c>
+      <c r="C2" s="39">
+        <v>-2.3414299999999999</v>
+      </c>
+      <c r="D2" s="40">
+        <v>20.010400000000001</v>
+      </c>
+      <c r="E2" s="40">
+        <v>29.706900000000001</v>
+      </c>
+      <c r="F2" s="41">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12223,8 +12235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C702"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A666" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E693" sqref="E693"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/lab/lab_3/xlsx3.xlsx
+++ b/lab/lab_3/xlsx3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368BE81E-0AB6-4857-BFA3-F6C6D085D611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938C2146-BB7B-4A5E-9F44-88ACD27096B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -6553,8 +6553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N302"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12176,8 +12176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12235,8 +12235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C702"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
